--- a/report/reliability/by-unidade/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo).xlsx
+++ b/report/reliability/by-unidade/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7761846869838979</v>
+        <v>0.7380149481993269</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7882058687861729</v>
+        <v>0.7765881435492488</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8876568251200656</v>
+        <v>0.884143347976165</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23671726543916455</v>
+        <v>0.21097536582287377</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.721566146657771</v>
+        <v>3.476038182962056</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.012092079374483389</v>
+        <v>0.013427085810664603</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.232911392405063</v>
+        <v>1.6756572541382668</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7101794436336967</v>
+        <v>0.5869285200747011</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1803063149073982</v>
+        <v>0.13593295304609337</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7446242259944723</v>
+        <v>0.7368742694117434</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7551241739024472</v>
+        <v>0.7687061182374973</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8585068227876951</v>
+        <v>0.8784673212778014</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21895537951936647</v>
+        <v>0.2168892912619241</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.0837024051595163</v>
+        <v>3.32350390066444</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.013847017990057333</v>
+        <v>0.01375467202654057</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03847418623931127</v>
+        <v>0.05203142137244598</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1591172206088503</v>
+        <v>0.1371556519647708</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7530204930296901</v>
+        <v>0.7064014348691943</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7647273390772279</v>
+        <v>0.7477100800686213</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8663966702997843</v>
+        <v>0.8648982357226092</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2280911712194087</v>
+        <v>0.19805897306096362</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.250387597427855</v>
+        <v>2.9636938339510106</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.01340409806479097</v>
+        <v>0.015014364030123765</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.038675350662946195</v>
+        <v>0.05315236591004934</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16819601985118945</v>
+        <v>0.12560668994371058</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.749487320571595</v>
+        <v>0.7189804330644597</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7582646794025198</v>
+        <v>0.7577023000095656</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8636865816149917</v>
+        <v>0.8685017718010806</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2218865401670484</v>
+        <v>0.20672456010768248</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.1367558432436353</v>
+        <v>3.1271543231300964</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.013587956770320125</v>
+        <v>0.0143553346033189</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03940142264937352</v>
+        <v>0.052017211827904024</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1648538672352453</v>
+        <v>0.12682063531917556</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7517835967091264</v>
+        <v>0.725847068723988</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7634113970169821</v>
+        <v>0.7499851582497573</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.868924993139274</v>
+        <v>0.8619120423623622</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22680845110358627</v>
+        <v>0.19998733559114817</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.226746290360315</v>
+        <v>2.999762546093045</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.01347532893950222</v>
+        <v>0.014219683947183231</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.040556197501319724</v>
+        <v>0.04242861367641797</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1648538672352453</v>
+        <v>0.12869341669446105</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7585105618149781</v>
+        <v>0.7057405869736701</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7738598697424154</v>
+        <v>0.7493577936628459</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8489644587318449</v>
+        <v>0.8616381508620438</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23727833466284037</v>
+        <v>0.19945301434008952</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.4220368974801203</v>
+        <v>2.9897510264286438</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01303409781833223</v>
+        <v>0.015001600979032893</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03791364708682407</v>
+        <v>0.042380475517343155</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19603451321976142</v>
+        <v>0.13593295304609337</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7595323009172922</v>
+        <v>0.7065279860961264</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7741408099337855</v>
+        <v>0.7494497108443627</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8491337281730782</v>
+        <v>0.8610814496421861</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2375691198939272</v>
+        <v>0.1995311766864533</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.4275373506246636</v>
+        <v>2.991214711306194</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.01297572501699893</v>
+        <v>0.014957878544219974</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.037883085615704984</v>
+        <v>0.04229081165673713</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.19603451321976142</v>
+        <v>0.1328385276388037</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7745054931209999</v>
+        <v>0.7376277260754015</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7907357018777906</v>
+        <v>0.7779698572224671</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8783539556814105</v>
+        <v>0.887747499854575</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2556828274970563</v>
+        <v>0.22600084892389372</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7786459944352497</v>
+        <v>3.503892973675957</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.012211206937342713</v>
+        <v>0.013714725622766159</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04098419586105258</v>
+        <v>0.05500170057241972</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2105480906329386</v>
+        <v>0.1392665258449924</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.784606298759498</v>
+        <v>0.729610057759428</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.791521914171856</v>
+        <v>0.7714724883014887</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8791449917839271</v>
+        <v>0.8716929499031234</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25658934962816776</v>
+        <v>0.21955487254857733</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.796667218176282</v>
+        <v>3.3758407579358196</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.011584943864155291</v>
+        <v>0.013724415363621569</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04090796588081476</v>
+        <v>0.0529173346367326</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2105480906329386</v>
+        <v>0.13650643824855596</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7658819774298299</v>
+        <v>0.743339386657601</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7790807682359839</v>
+        <v>0.7750287762673919</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8899526102224344</v>
+        <v>0.8785797193210788</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24276537244388982</v>
+        <v>0.22305018139155933</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.5265411798470785</v>
+        <v>3.445012937248189</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.012764940149252184</v>
+        <v>0.012890422040809217</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04715901120791559</v>
+        <v>0.053653208856942164</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.16819601985118945</v>
+        <v>0.1392665258449924</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7669252249995856</v>
+        <v>0.7196164166152406</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7799051671993772</v>
+        <v>0.7661398742451567</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.890260439912379</v>
+        <v>0.8854578240073356</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24364815900828865</v>
+        <v>0.21445714650013808</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.5434960343020387</v>
+        <v>3.2760603021667096</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.012705252774249122</v>
+        <v>0.014451442590384268</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04675195114470258</v>
+        <v>0.058672296493132714</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16704706982009357</v>
+        <v>0.12869341669446105</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7590286312478548</v>
+        <v>0.7246231674883526</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7723184172039905</v>
+        <v>0.7692685821555009</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.86295985459547</v>
+        <v>0.8867606319729614</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23569173787981215</v>
+        <v>0.21742754897287594</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.392098771097995</v>
+        <v>3.3340434923949025</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.013049184599795859</v>
+        <v>0.014138450361911666</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.040984314733299256</v>
+        <v>0.05848483022174691</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.16704706982009357</v>
+        <v>0.13593295304609337</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.758688674937267</v>
+        <v>0.7137655997714443</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.772268630847005</v>
+        <v>0.7624539640820304</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8633317634252233</v>
+        <v>0.8612975835602787</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23564074224658257</v>
+        <v>0.21103033892122958</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3911385757672137</v>
+        <v>3.209710324719222</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.013072580982137181</v>
+        <v>0.014624373089403413</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04116165102538071</v>
+        <v>0.05324963044882049</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16704706982009357</v>
+        <v>0.1280863276480691</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7131184075787615</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7618918293573872</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.861288623465959</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.21051446739082388</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.1997718822549137</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.014661585492203567</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.053611977077751186</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.13629143145671538</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>790.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6706884401353688</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6965693270089547</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6908807749722462</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5836903191379555</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.19746835443038</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.171695626951195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5977621354213153</v>
+        <v>0.3652960481989683</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6201624415906282</v>
+        <v>0.4636148730002266</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6006617243398753</v>
+        <v>0.4158226145891713</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4863204856246044</v>
+        <v>0.339689378289702</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.6848101265822786</v>
+        <v>0.9481012658227848</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2917392415208657</v>
+        <v>0.22196310423923177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.639584726966557</v>
+        <v>0.6060271475887384</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6720546639010923</v>
+        <v>0.6470310958897157</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.656044881615085</v>
+        <v>0.6298060512106644</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5580752913068638</v>
+        <v>0.4944285565724313</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3556962025316457</v>
+        <v>3.19746835443038</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0446613432298493</v>
+        <v>1.171695626951195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6071991769990563</v>
+        <v>0.5250611238204084</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6308904279689704</v>
+        <v>0.5626241714677915</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6024308618988707</v>
+        <v>0.5394098394660148</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5018720883815895</v>
+        <v>0.3856820894985248</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.678481012658228</v>
+        <v>3.6848101265822786</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2456943219528167</v>
+        <v>1.2917392415208657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5567357893691762</v>
+        <v>0.5995052271617065</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5433259103310021</v>
+        <v>0.6282479310024637</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5647356087910002</v>
+        <v>0.6575436359973051</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4333278871864703</v>
+        <v>0.568162476941807</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.5379746835443038</v>
+        <v>0.15063291139240506</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3407717541388868</v>
+        <v>0.35791730241310143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5547365565828192</v>
+        <v>0.6132594125713864</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5408939378690109</v>
+        <v>0.6334524732004686</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5621207567250497</v>
+        <v>0.6640514036392068</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.42428188256269234</v>
+        <v>0.4845544762843039</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5658227848101266</v>
+        <v>0.5379746835443038</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.4052577422548291</v>
+        <v>1.3407717541388868</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4138665486283813</v>
+        <v>0.6122766835657385</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3894005559296041</v>
+        <v>0.6326911349060639</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.32719098539927505</v>
+        <v>0.6640177301914673</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2772254186956708</v>
+        <v>0.47614366004621056</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.369620253164557</v>
+        <v>0.5658227848101266</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2885726110651512</v>
+        <v>1.4052577422548291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.41878858477040964</v>
+        <v>0.297029348455339</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.38181888869427405</v>
+        <v>0.3748639834420773</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3176755831881571</v>
+        <v>0.288055333139857</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24052977054808783</v>
+        <v>0.26487333251458933</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.356962025316456</v>
+        <v>0.9240506329113924</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.651260880475138</v>
+        <v>0.2650849111272277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5147017980005858</v>
+        <v>0.45056577120949504</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4974352551160046</v>
+        <v>0.4376508480599629</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4023146365659293</v>
+        <v>0.3935944682217546</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.37141038052481595</v>
+        <v>0.3009040936316072</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2164556962025317</v>
+        <v>2.369620253164557</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4635348270710522</v>
+        <v>1.2885726110651512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.49559392193198326</v>
+        <v>0.44674888088035347</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4900520994914573</v>
+        <v>0.4036048835165014</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3939052358914772</v>
+        <v>0.3453334223581724</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.35753952711074266</v>
+        <v>0.24932401965291787</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.259493670886076</v>
+        <v>2.356962025316456</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.389715892889989</v>
+        <v>1.651260880475138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5480727535590678</v>
+        <v>0.5430934630918423</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5565953589552919</v>
+        <v>0.4873051155636524</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5389710678067137</v>
+        <v>0.3968782717074444</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.42947918771133786</v>
+        <v>0.38594299142032545</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8949367088607596</v>
+        <v>1.2164556962025317</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2807830635246997</v>
+        <v>1.4635348270710522</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>790.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5459335463827676</v>
+        <v>0.5013436278289144</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5570218592119679</v>
+        <v>0.4583719878173888</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5388898469875621</v>
+        <v>0.3646454473013623</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.43724631644678236</v>
+        <v>0.34611704851606934</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.259493670886076</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.389715892889989</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>790.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5589842471772546</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5206838453325635</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5035553959145395</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4266209062648055</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8949367088607596</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2807830635246997</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>790.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5578804822677986</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5257086785081608</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5085443674810907</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4368845149064492</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.6772151898734178</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.181119892100497</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05189873417721519</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07468354430379746</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008860759493670886</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4151898734177215</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.38734177215189874</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.0620253164556962</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05189873417721519</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.007594936708860759</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05189873417721519</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.320253164556962</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2291139240506329</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3392405063291139</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.020253164556962026</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06835443037974684</v>
+        <v>0.9481012658227848</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.021518987341772152</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.39746835443037976</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.41012658227848103</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08227848101265822</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.020253164556962026</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03291139240506329</v>
+        <v>0.07468354430379746</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06329113924050633</v>
+        <v>0.008860759493670886</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.39746835443037976</v>
+        <v>0.4151898734177215</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10379746835443038</v>
+        <v>0.38734177215189874</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.3822784810126582</v>
+        <v>0.0620253164556962</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8493670886075949</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.01139240506329114</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0037974683544303796</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.04810126582278481</v>
+        <v>0.320253164556962</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.0620253164556962</v>
+        <v>0.2291139240506329</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.02531645569620253</v>
+        <v>0.3392405063291139</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8493670886075949</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0037974683544303796</v>
+        <v>0.15063291139240506</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.007594936708860759</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.060759493670886074</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.027848101265822784</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05063291139240506</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.0759493670886076</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.25316455696202533</v>
+        <v>0.01139240506329114</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.10506329113924051</v>
+        <v>0.0037974683544303796</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.379746835443038</v>
+        <v>0.04810126582278481</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.16329113924050634</v>
+        <v>0.0620253164556962</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02278481012658228</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.0759493670886076</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.3518987341772152</v>
+        <v>0.0037974683544303796</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1848101265822785</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10759493670886076</v>
+        <v>0.060759493670886074</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.08607594936708861</v>
+        <v>0.027848101265822784</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.19367088607594937</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5240506329113924</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11772151898734177</v>
+        <v>0.9240506329113924</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05443037974683544</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22531645569620254</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.07848101265822785</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1189873417721519</v>
+        <v>0.25316455696202533</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05189873417721519</v>
+        <v>0.10506329113924051</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.479746835443038</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14936708860759493</v>
+        <v>0.16329113924050634</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02278481012658228</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22151898734177214</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.10506329113924051</v>
+        <v>0.3518987341772152</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3379746835443038</v>
+        <v>0.1848101265822785</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.22784810126582278</v>
+        <v>0.10759493670886076</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.10759493670886076</v>
+        <v>0.08607594936708861</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.19367088607594937</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2518987341772152</v>
+        <v>0.5240506329113924</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10126582278481013</v>
+        <v>0.11772151898734177</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4177215189873418</v>
+        <v>0.05443037974683544</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.1759493670886076</v>
+        <v>0.22531645569620254</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.053164556962025315</v>
+        <v>0.07848101265822785</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1189873417721519</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.479746835443038</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14936708860759493</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.22151898734177214</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.10506329113924051</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3379746835443038</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.10759493670886076</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2518987341772152</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4177215189873418</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.1759493670886076</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.053164556962025315</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.867100552614428</v>
+        <v>0.8776817973863625</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8701622801010263</v>
+        <v>0.9853301666316581</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8737872965778898</v>
+        <v>0.978294964871603</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6262353645436688</v>
+        <v>0.9572449197022112</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.701922066854664</v>
+        <v>67.16710012248883</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.007835961582734722</v>
+        <v>0.0013141833460622956</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.479113924050633</v>
+        <v>0.4181434599156118</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.007987981844154</v>
+        <v>1.0220674209354974</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6423100226676002</v>
+        <v>0.9567253215837882</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8170349691388982</v>
+        <v>0.9798838881084659</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8222959644333135</v>
+        <v>0.9804351390745163</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7647845894782798</v>
+        <v>0.9616211549155899</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6066777835738585</v>
+        <v>0.9616211549155897</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.62733421788124</v>
+        <v>50.11204234002376</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.011196830567526402</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0066953114081133806</v>
-      </c>
+        <v>0.001410855717753073</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6017234218609815</v>
+        <v>0.9616211549155897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8289382747292753</v>
+        <v>0.6279417398895848</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.835203082393138</v>
+        <v>0.9778841322597158</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7893421525471058</v>
+        <v>0.9567253215837882</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6281640755794301</v>
+        <v>0.9567253215837881</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.068074661357386</v>
+        <v>44.21640352272944</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.010768376076036092</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.010359249360998576</v>
-      </c>
+        <v>0.004144821865754716</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6828966234742188</v>
+        <v>0.9567253215837882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8292597672109594</v>
+        <v>0.6442070498513586</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8296000767697881</v>
+        <v>0.976138017306764</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7840127226193575</v>
+        <v>0.9533882826072555</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6187352116424001</v>
+        <v>0.9533882826072555</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.868547244877511</v>
+        <v>40.907665966225835</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01061468115516421</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.013792278863176475</v>
-      </c>
+        <v>0.004326957487296132</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6017234218609815</v>
+        <v>0.9533882826072554</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8460392416769003</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8485989247006929</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8105523422372143</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6513643873789866</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.604972904076697</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.009418838477662698</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01244334916783032</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6828966234742188</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>790.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9720947257727792</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9841652876233268</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9711312186247981</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.964388684267117</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.15063291139240506</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.35791730241310143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>790.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8636111866830796</v>
+        <v>0.9892796461139823</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8656280127750222</v>
+        <v>0.9858209993495662</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8274445901786427</v>
+        <v>0.9754551554723853</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7507714430336921</v>
+        <v>0.966742276438485</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.19746835443038</v>
+        <v>0.5379746835443038</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.171695626951195</v>
+        <v>1.3407717541388868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>790.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8590764175404986</v>
+        <v>0.9904763322494842</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8466323667051483</v>
+        <v>0.986949545643917</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7916506210007599</v>
+        <v>0.9780832149634985</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.724944580838552</v>
+        <v>0.9681236490420695</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.6848101265822786</v>
+        <v>0.5658227848101266</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2917392415208657</v>
+        <v>1.4052577422548291</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>790.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.839974336705358</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8549682564967596</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8020403477824642</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7307585604648041</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3556962025316457</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0446613432298493</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>790.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8291528824433335</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8261213864233566</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7508523446696302</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6812280911748813</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.678481012658228</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2456943219528167</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8493670886075949</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.15063291139240506</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8493670886075949</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01139240506329114</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0037974683544303796</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04810126582278481</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0620253164556962</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.05189873417721519</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07468354430379746</v>
+        <v>0.0037974683544303796</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.008860759493670886</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.4151898734177215</v>
+        <v>0.060759493670886074</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.38734177215189874</v>
+        <v>0.027848101265822784</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.0620253164556962</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05189873417721519</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.007594936708860759</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05189873417721519</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.320253164556962</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2291139240506329</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3392405063291139</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.020253164556962026</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06835443037974684</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.021518987341772152</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.39746835443037976</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.41012658227848103</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08227848101265822</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.020253164556962026</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03291139240506329</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.39746835443037976</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10379746835443038</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.3822784810126582</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7882223439386125</v>
+        <v>0.6673563626250323</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8028069720451625</v>
+        <v>0.775966889562667</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6705743796525412</v>
+        <v>0.7207589932479472</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6705743796525412</v>
+        <v>0.5358642293955072</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.07117320714314</v>
+        <v>3.4636259258638575</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.014277096757514145</v>
+        <v>0.010988252824977552</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.3632911392405065</v>
+        <v>1.8835443037974684</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3454309118089907</v>
+        <v>0.9445680490361006</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6705743796525411</v>
+        <v>0.5275444958996647</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6705743796525411</v>
+        <v>0.7882223439386125</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6705743796525411</v>
+        <v>0.8028069720451625</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.44966999864639023</v>
+        <v>0.6705743796525412</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6705743796525411</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6705743796525411</v>
-      </c>
+        <v>0.6705743796525412</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.07117320714314</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.014277096757514145</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6705743796525411</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.44966999864639023</v>
+        <v>0.22721217655516868</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6705743796525411</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.44966999864639023</v>
-      </c>
+        <v>0.5810307491545466</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4094738126343159</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4094738126343158</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.386810005703434</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.015833252792039745</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6705743796525411</v>
+        <v>0.4094738126343158</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.344699538743406</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6907091705881359</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5275444958996647</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5275444958996647</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.2332028786678295</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.015986952643854677</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5275444958996647</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>790.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8903711928295631</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9139404738965611</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7484131139614443</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.670574379652541</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.369620253164557</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2885726110651512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>790.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9347728812010927</v>
+        <v>0.5720471523810795</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9139404738965611</v>
+        <v>0.7769743509655164</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7484131139614443</v>
+        <v>0.5768729273053563</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6705743796525409</v>
+        <v>0.5039008190667436</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2650849111272277</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>790.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8948393360094072</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8817066824576505</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8148612572731646</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7020801054172306</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.369620253164557</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2885726110651512</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>790.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9259576345279699</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8343463182866062</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7247843612235227</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6726065901374928</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.356962025316456</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.651260880475138</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.0759493670886076</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.0759493670886076</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.25316455696202533</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.10506329113924051</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.379746835443038</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.16329113924050634</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.02278481012658228</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.0759493670886076</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.3518987341772152</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1848101265822785</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10759493670886076</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.08607594936708861</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.19367088607594937</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8976956796323527</v>
+        <v>0.734636976563344</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8993176055348253</v>
+        <v>0.8662796344640279</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8170545927300007</v>
+        <v>0.81647199294971</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8170545927300008</v>
+        <v>0.6834872931149749</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.932223059572676</v>
+        <v>6.478292450008226</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.007208688256744207</v>
+        <v>0.007623916296081802</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.7860759493670886</v>
+        <v>2.610126582278481</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1733990984149474</v>
+        <v>0.820391339469714</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8170545927300007</v>
+        <v>0.6678306154021684</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8170545927300007</v>
+        <v>0.8507266114411862</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8170545927300007</v>
+        <v>0.8530491519578189</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6675782075011872</v>
+        <v>0.7437538874607875</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8170545927300007</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8170545927300007</v>
-      </c>
+        <v>0.7437538874607874</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.804996455093327</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.010510167966801732</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8170545927300007</v>
+        <v>0.7437538874607873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6675782075011872</v>
+        <v>0.3645808195744813</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8170545927300007</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6675782075011872</v>
-      </c>
+        <v>0.8008374582344895</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6678306154021685</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6678306154021685</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.021024491530025</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.011523910547859019</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8170545927300007</v>
+        <v>0.6678306154021684</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.37881973179463513</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7796524445939814</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6388773764819689</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6388773764819691</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.5382849751038643</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.012791189753846681</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.638877376481969</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>790.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9569729936574345</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9531669824144143</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8615778549356953</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8170545927300006</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8949367088607596</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2807830635246997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>790.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9492037191153585</v>
+        <v>0.7448461308762562</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9531669824144143</v>
+        <v>0.8656357725478733</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8615778549356953</v>
+        <v>0.7467034449872665</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8170545927300008</v>
+        <v>0.7003479523438166</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.6772151898734178</v>
+        <v>0.9481012658227848</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.181119892100497</v>
+        <v>0.22196310423923177</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>790.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9240463689764481</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8941274153973624</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8191101579716396</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7606792659800996</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.19746835443038</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.171695626951195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>790.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9391559305429962</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9049926655411303</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8420288696795025</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7698331361699396</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.6848101265822786</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2917392415208657</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22151898734177214</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.10506329113924051</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3379746835443038</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.10759493670886076</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9481012658227848</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2518987341772152</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4177215189873418</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1759493670886076</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.053164556962025315</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07468354430379746</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008860759493670886</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.4151898734177215</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.38734177215189874</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.0620253164556962</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.007594936708860759</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.320253164556962</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.2291139240506329</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3392405063291139</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9798838881084659</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9804351390745163</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9616211549155899</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>50.11204234002376</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.001410855717753073</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.5518987341772152</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.3597845911095359</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9616211549155897</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5395326309298374</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5400602240464496</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3699195219841943</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.1741976934410443</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.0327146206035142</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7379746835443037</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1808896345083721</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.36991952198419464</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9247152455811928</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9616211549155897</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.13684045274501444</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.36991952198419464</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9247152455811928</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9247152455811928</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9616211549155897</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.13684045274501444</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.13684045274501444</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.36991952198419464</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>790.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9898984533290651</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9903588124805044</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9711684716095305</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9616211549155897</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.5379746835443038</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.3407717541388868</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8373423764897712</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8276229582316439</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5033686396316366</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.2164556962025317</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4635348270710522</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>790.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9908084863461321</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9903588124805044</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9711684716095305</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9616211549155896</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.5658227848101266</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.4052577422548291</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8176488048060866</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8276229582316439</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5033686396316369</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.36991952198419464</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.259493670886076</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.389715892889989</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8493670886075949</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01139240506329114</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0037974683544303796</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.04810126582278481</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.0620253164556962</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5240506329113924</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.11772151898734177</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05443037974683544</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22531645569620254</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.07848101265822785</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8493670886075949</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0037974683544303796</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.007594936708860759</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.060759493670886074</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.027848101265822784</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1189873417721519</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05189873417721519</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.479746835443038</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14936708860759493</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5395326309298374</v>
+        <v>0.8976956796323527</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5400602240464496</v>
+        <v>0.8993176055348253</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3699195219841943</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300008</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.1741976934410443</v>
+        <v>8.932223059572676</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.0327146206035142</v>
+        <v>0.007208688256744207</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7379746835443037</v>
+        <v>1.7860759493670886</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1808896345083721</v>
+        <v>1.1733990984149474</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.13684045274501444</v>
+        <v>0.6675782075011872</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.13684045274501444</v>
+        <v>0.6675782075011872</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.13684045274501444</v>
+        <v>0.6675782075011872</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300007</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>790.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8373423764897712</v>
+        <v>0.9569729936574345</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8276229582316439</v>
+        <v>0.9531669824144143</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5033686396316366</v>
+        <v>0.8615778549356953</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300006</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.2164556962025317</v>
+        <v>1.8949367088607596</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4635348270710522</v>
+        <v>1.2807830635246997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>790.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8176488048060866</v>
+        <v>0.9492037191153585</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8276229582316439</v>
+        <v>0.9531669824144143</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5033686396316369</v>
+        <v>0.8615778549356953</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.36991952198419464</v>
+        <v>0.8170545927300008</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.259493670886076</v>
+        <v>1.6772151898734178</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.389715892889989</v>
+        <v>1.181119892100497</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5240506329113924</v>
+        <v>0.22151898734177214</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.11772151898734177</v>
+        <v>0.10506329113924051</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05443037974683544</v>
+        <v>0.3379746835443038</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22531645569620254</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.07848101265822785</v>
+        <v>0.10759493670886076</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2</v>
+        <v>0.2518987341772152</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1189873417721519</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05189873417721519</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.479746835443038</v>
+        <v>0.1759493670886076</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14936708860759493</v>
+        <v>0.053164556962025315</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7990955526321581</v>
+        <v>0.7624147661801994</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8062327675337051</v>
+        <v>0.7994114523497404</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8959385080919818</v>
+        <v>0.8977895660469027</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2938267689456668</v>
+        <v>0.2849650046409826</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.160831309153089</v>
+        <v>3.9853294802431645</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.011042009490420036</v>
+        <v>0.012341171582818814</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.2068354430379746</v>
+        <v>1.6132911392405063</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7680593692459146</v>
+        <v>0.6702915800825033</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22094449437645378</v>
+        <v>0.2105480906329386</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7671508086925889</v>
+        <v>0.7506610945593896</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7727866277291093</v>
+        <v>0.77167410524578</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8643980048808135</v>
+        <v>0.8737505950593787</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2742608204887916</v>
+        <v>0.2730036620237566</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.4011494130185684</v>
+        <v>3.379704724584321</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.012852645650070462</v>
+        <v>0.013268419511804633</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04020364933522938</v>
+        <v>0.04755204931704112</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2139535870786819</v>
+        <v>0.21734342378276844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7749517451547698</v>
+        <v>0.7303040431104059</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7815678419039757</v>
+        <v>0.7714101648205411</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.872782053617303</v>
+        <v>0.8733154060806384</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2844695172974481</v>
+        <v>0.27270656848387076</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.5780804837371636</v>
+        <v>3.3746477143873483</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.012433703397912284</v>
+        <v>0.013748623723031813</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04043269312596612</v>
+        <v>0.04734482456255638</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.222541625654526</v>
+        <v>0.21734342378276844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7734572201285781</v>
+        <v>0.7319443756155308</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7776176638173371</v>
+        <v>0.7715175719931099</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8707671516942942</v>
+        <v>0.8726398603635173</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2798133291557334</v>
+        <v>0.27282741335379446</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.496760026743349</v>
+        <v>3.376704190003809</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01252218904239863</v>
+        <v>0.013639592951723067</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04077751754461553</v>
+        <v>0.04715507718640058</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.22062884429918422</v>
+        <v>0.21734342378276844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7767161654354223</v>
+        <v>0.7636787232890883</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7829630157346702</v>
+        <v>0.7928092512408512</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8768847902037052</v>
+        <v>0.8932961803333828</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2861397494105852</v>
+        <v>0.2983260574693445</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.607509652721169</v>
+        <v>3.8264703225840506</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.01234712064951659</v>
+        <v>0.012762858948794007</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04204770265295219</v>
+        <v>0.06315349255000643</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.22465004555091128</v>
+        <v>0.22762483382449705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7825965242322037</v>
+        <v>0.7309924320490773</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7909206063040547</v>
+        <v>0.7710081469872668</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.868351904327588</v>
+        <v>0.8788099610486466</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2959328759976936</v>
+        <v>0.27225490517133927</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.782872105771718</v>
+        <v>3.366967587901018</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.011970043771700198</v>
+        <v>0.013889910642126716</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04271489367042409</v>
+        <v>0.06693321213720894</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.22305291427283902</v>
+        <v>0.15688487620858393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7825864052345899</v>
+        <v>0.7435751426739694</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7915927455988551</v>
+        <v>0.7798548212299116</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.868849085078191</v>
+        <v>0.8808756958769615</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.29678146439130704</v>
+        <v>0.28243724278899607</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.7982974626938213</v>
+        <v>3.5424569622047595</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.011986175224227855</v>
+        <v>0.013202396090159337</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04250552249415143</v>
+        <v>0.06461653868538442</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.222541625654526</v>
+        <v>0.22615994362388744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7852870822226112</v>
+        <v>0.7461434325467681</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7956285149893163</v>
+        <v>0.7913589236055065</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8520785101508441</v>
+        <v>0.9031089803235376</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30194952781185247</v>
+        <v>0.2964858719425978</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.8930505150839645</v>
+        <v>3.792920058125198</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.011717744262655427</v>
+        <v>0.013321288825662537</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03605081294727747</v>
+        <v>0.07476596543752076</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.222541625654526</v>
+        <v>0.17576691528622862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7869841780968343</v>
+        <v>0.7522541182329275</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7959687466935709</v>
+        <v>0.795832069598265</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8522559945248767</v>
+        <v>0.9046492648402875</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3023910109962562</v>
+        <v>0.30221354971723213</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.901209906788774</v>
+        <v>3.897928866851571</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.011611240456896207</v>
+        <v>0.012908667704748902</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.035934609794567716</v>
+        <v>0.07331059875206283</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.22465004555091128</v>
+        <v>0.20329130192635003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7927836171878635</v>
+        <v>0.7359305923114562</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8000664104897621</v>
+        <v>0.7853386901369053</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9010557153088234</v>
+        <v>0.8709297599465566</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3077807420955143</v>
+        <v>0.2890153615278728</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.0016608137213145</v>
+        <v>3.6585013416613053</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.011551311857427204</v>
+        <v>0.013615440106138504</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.050279354750088365</v>
+        <v>0.06636218927008225</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22074308096872242</v>
+        <v>0.21155152527678947</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7933918269666548</v>
+        <v>0.736157586962727</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8007914994946937</v>
+        <v>0.7864540940554354</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9013322888569466</v>
+        <v>0.8715532896506619</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.30874865181148586</v>
+        <v>0.29037941393102173</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.019866107437336</v>
+        <v>3.6828338645817698</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01151770988156298</v>
+        <v>0.01362278427516228</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04966570021011537</v>
+        <v>0.06600502095034323</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.21948740294889652</v>
+        <v>0.21734342378276844</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7001427166795587</v>
+        <v>0.6393339727864273</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7203697746356986</v>
+        <v>0.6691725127527011</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7082638945449219</v>
+        <v>0.6941573480805311</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6085629367499029</v>
+        <v>0.6060994473359272</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.19746835443038</v>
+        <v>0.15063291139240506</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.171695626951195</v>
+        <v>0.35791730241310143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6442346279576084</v>
+        <v>0.6487996555281381</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6594921989413951</v>
+        <v>0.6709638820536146</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6338340807387131</v>
+        <v>0.6972744834691967</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5284295056473653</v>
+        <v>0.5079855820384938</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.6848101265822786</v>
+        <v>0.5379746835443038</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2917392415208657</v>
+        <v>1.3407717541388868</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6581949487966949</v>
+        <v>0.6475629379026497</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6872584703232422</v>
+        <v>0.6702352300935704</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.66386922633785</v>
+        <v>0.6973475567940864</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.569932606501624</v>
+        <v>0.49826360565004946</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3556962025316457</v>
+        <v>0.5658227848101266</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0446613432298493</v>
+        <v>1.4052577422548291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6295442150592963</v>
+        <v>0.41354462645458345</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6495320949437589</v>
+        <v>0.516487395990357</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6129943178781454</v>
+        <v>0.45711656972151277</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5154508900312799</v>
+        <v>0.3855321824872396</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.678481012658228</v>
+        <v>0.9481012658227848</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2456943219528167</v>
+        <v>0.22196310423923177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5892746791959512</v>
+        <v>0.634258576563086</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5911326913504372</v>
+        <v>0.6736872525877851</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5680549910432914</v>
+        <v>0.6440039069969011</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.46341826010540865</v>
+        <v>0.5108791636370331</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.8949367088607596</v>
+        <v>3.19746835443038</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2807830635246997</v>
+        <v>1.171695626951195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5811230222469955</v>
+        <v>0.5735342190506446</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5860722996928356</v>
+        <v>0.6122913466828236</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5623515815107338</v>
+        <v>0.5796706672266831</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4649106550419403</v>
+        <v>0.42155462790938525</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.6772151898734178</v>
+        <v>3.6848101265822786</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.181119892100497</v>
+        <v>1.2917392415208657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5769740299954242</v>
+        <v>0.5893077556604172</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5552535597523534</v>
+        <v>0.5275830659327775</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5736470188867451</v>
+        <v>0.4199691464206081</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4419575318107926</v>
+        <v>0.41728048053785144</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.5379746835443038</v>
+        <v>1.2164556962025317</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.3407717541388868</v>
+        <v>1.4635348270710522</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5746282601640206</v>
+        <v>0.5439377298042966</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5526208607428664</v>
+        <v>0.49304718832687333</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5708347839929063</v>
+        <v>0.3819040601141218</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.43168016664660463</v>
+        <v>0.3723034062165762</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.5658227848101266</v>
+        <v>2.259493670886076</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.4052577422548291</v>
+        <v>1.389715892889989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5466579260420681</v>
+        <v>0.6140106183030417</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5204802487610513</v>
+        <v>0.5726276098977257</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4135567986910234</v>
+        <v>0.5473406724462474</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3913565072769524</v>
+        <v>0.4723030059216954</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.2164556962025317</v>
+        <v>1.8949367088607596</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4635348270710522</v>
+        <v>1.2807830635246997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>790.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5281602638733784</v>
+        <v>0.6041638879227268</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5147083076304902</v>
+        <v>0.5644028548230224</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.40678175369869674</v>
+        <v>0.5383677315874478</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3784874340190474</v>
+        <v>0.4731357705353526</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.259493670886076</v>
+        <v>1.6772151898734178</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.389715892889989</v>
+        <v>1.181119892100497</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.05189873417721519</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07468354430379746</v>
+        <v>0.15063291139240506</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008860759493670886</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.4151898734177215</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.38734177215189874</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.0620253164556962</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.05189873417721519</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.007594936708860759</v>
+        <v>0.01139240506329114</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05189873417721519</v>
+        <v>0.0037974683544303796</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.320253164556962</v>
+        <v>0.04810126582278481</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.2291139240506329</v>
+        <v>0.0620253164556962</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3392405063291139</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.020253164556962026</v>
+        <v>0.8493670886075949</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06835443037974684</v>
+        <v>0.0037974683544303796</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.021518987341772152</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.39746835443037976</v>
+        <v>0.060759493670886074</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.41012658227848103</v>
+        <v>0.027848101265822784</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08227848101265822</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.020253164556962026</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03291139240506329</v>
+        <v>0.9481012658227848</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06329113924050633</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.39746835443037976</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.10379746835443038</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.3822784810126582</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.22151898734177214</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.10506329113924051</v>
+        <v>0.07468354430379746</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3379746835443038</v>
+        <v>0.008860759493670886</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.22784810126582278</v>
+        <v>0.4151898734177215</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.10759493670886076</v>
+        <v>0.38734177215189874</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.0620253164556962</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2518987341772152</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10126582278481013</v>
+        <v>0.007594936708860759</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4177215189873418</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.1759493670886076</v>
+        <v>0.320253164556962</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.053164556962025315</v>
+        <v>0.2291139240506329</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3392405063291139</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8493670886075949</v>
+        <v>0.5240506329113924</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.01139240506329114</v>
+        <v>0.11772151898734177</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0037974683544303796</v>
+        <v>0.05443037974683544</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.04810126582278481</v>
+        <v>0.22531645569620254</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.0620253164556962</v>
+        <v>0.07848101265822785</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.02531645569620253</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8493670886075949</v>
+        <v>0.2</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0037974683544303796</v>
+        <v>0.1189873417721519</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.007594936708860759</v>
+        <v>0.05189873417721519</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.060759493670886074</v>
+        <v>0.479746835443038</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.027848101265822784</v>
+        <v>0.14936708860759493</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.05063291139240506</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5240506329113924</v>
+        <v>0.22151898734177214</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.11772151898734177</v>
+        <v>0.10506329113924051</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05443037974683544</v>
+        <v>0.3379746835443038</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22531645569620254</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.07848101265822785</v>
+        <v>0.10759493670886076</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2</v>
+        <v>0.2518987341772152</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1189873417721519</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05189873417721519</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.479746835443038</v>
+        <v>0.1759493670886076</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14936708860759493</v>
+        <v>0.053164556962025315</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
